--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13099977.46</v>
+        <v>25783741.9</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>485184.35</v>
+        <v>560516.13</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1274162.56</v>
+        <v>1306338.04</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389819.5</v>
+        <v>389751.57</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817420.35</v>
+        <v>817080.64</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783524.2</v>
+        <v>783107.8</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1426526.04</v>
+        <v>1426560.22</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>692651.42</v>
+        <v>692698.5</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796033.75</v>
+        <v>786086.42</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>702233.34</v>
+        <v>701548</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>477280.69</v>
+        <v>462227.71</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>643640.25</v>
+        <v>644118.02</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>499236.78</v>
+        <v>499075.02</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>478832.03</v>
+        <v>479382.62</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351407.18</v>
+        <v>351477.13</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>597349.88</v>
+        <v>655678.85</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>635325.02</v>
+        <v>706236.85</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360721.93</v>
+        <v>361384.19</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>712172.26</v>
+        <v>712173.02</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>65765.71000000001</v>
+        <v>65659.60000000001</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>157768.26</v>
+        <v>169288.68</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>229057.54</v>
+        <v>229103.79</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>227233.09</v>
+        <v>197087.89</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>249443.54</v>
+        <v>351270.54</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151779.15</v>
+        <v>151789.89</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55265.9</v>
+        <v>55287.37</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160041.49</v>
+        <v>160050.62</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10312.01</v>
+        <v>10300.98</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,197 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>154973.59</v>
+        <v>155069.61</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>266787.62</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>155297.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3004.99</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6022.68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>864052.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>159060.05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>68963.50999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2336720.7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>33646.46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>644915.5600000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>227128.76</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>23075.99</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2183.19</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2796.26</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2082650.95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>23455.87</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10300.98</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1340836.12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4213009.04</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -803,7 +803,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B38" t="n">

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,488 +436,637 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25783741.9</v>
+        <v>400112.01</v>
+      </c>
+      <c r="C2" t="n">
+        <v>415270.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560516.13</v>
+        <v>1277644.43</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1270798.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1306338.04</v>
+        <v>151739.83</v>
+      </c>
+      <c r="C4" t="n">
+        <v>166695.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389751.57</v>
+        <v>223024.19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>276849.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817080.64</v>
+        <v>389618.58</v>
+      </c>
+      <c r="C6" t="n">
+        <v>389935.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783107.8</v>
+        <v>818056.71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>877114.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1426560.22</v>
+        <v>33653.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33664.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>692698.5</v>
+        <v>646567.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>646447.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>786086.42</v>
+        <v>55289.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>55226.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>701548</v>
+        <v>2797.52</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2803.67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>462227.71</v>
+        <v>2193.46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2207.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644118.02</v>
+        <v>812395.33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1081989.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>499075.02</v>
+        <v>338555.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>393366.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>479382.62</v>
+        <v>2064292.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2055285.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351477.13</v>
+        <v>1427221.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1427373.73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>655678.85</v>
+        <v>692928.48</v>
+      </c>
+      <c r="C17" t="n">
+        <v>692847.28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>706236.85</v>
+        <v>6030.93</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5745.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>361384.19</v>
+        <v>864794.3199999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>863971.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>712173.02</v>
+        <v>155486.92</v>
+      </c>
+      <c r="C20" t="n">
+        <v>155358.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>65659.60000000001</v>
+        <v>226781.02</v>
+      </c>
+      <c r="C21" t="n">
+        <v>227813.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169288.68</v>
+        <v>2999.63</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3005.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>229103.79</v>
+        <v>732751.67</v>
+      </c>
+      <c r="C23" t="n">
+        <v>801516.77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>197087.89</v>
+        <v>730431.01</v>
+      </c>
+      <c r="C24" t="n">
+        <v>789073.59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>351270.54</v>
+        <v>798851.29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>951415.41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151789.89</v>
+        <v>688552.34</v>
+      </c>
+      <c r="C26" t="n">
+        <v>728763.61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55287.37</v>
+        <v>160107.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>160124.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160050.62</v>
+        <v>23434.87</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23428.99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10300.98</v>
+        <v>447295.72</v>
+      </c>
+      <c r="C29" t="n">
+        <v>497222.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>155069.61</v>
+        <v>644115.34</v>
+      </c>
+      <c r="C30" t="n">
+        <v>684012.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266787.62</v>
+        <v>178650.87</v>
+      </c>
+      <c r="C31" t="n">
+        <v>178648.66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>155297.4</v>
+        <v>2399.75</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3293.51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3004.99</v>
+        <v>2399.75</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3293.51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6022.68</v>
+        <v>165476.87</v>
+      </c>
+      <c r="C34" t="n">
+        <v>176968.13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>864052.2</v>
+        <v>69048.17</v>
+      </c>
+      <c r="C35" t="n">
+        <v>69023.66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159060.05</v>
+        <v>155076.9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>154990.57</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68963.50999999999</v>
+        <v>361515.15</v>
+      </c>
+      <c r="C37" t="n">
+        <v>384522.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2336720.7</v>
+        <v>712333.59</v>
+      </c>
+      <c r="C38" t="n">
+        <v>712301.29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>33646.46</v>
+        <v>197103.56</v>
+      </c>
+      <c r="C39" t="n">
+        <v>219146.69</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>644915.5600000001</v>
+        <v>499074.49</v>
+      </c>
+      <c r="C40" t="n">
+        <v>499412.72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>227128.76</v>
+        <v>351417.79</v>
+      </c>
+      <c r="C41" t="n">
+        <v>351385.62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>23075.99</v>
+        <v>479418.37</v>
+      </c>
+      <c r="C42" t="n">
+        <v>575200.85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2183.19</v>
+        <v>1204636.15</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1203933.93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2796.26</v>
+        <v>4212576.68</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5196347.47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2082650.95</v>
+        <v>2058878.11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2059650.51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23455.87</v>
+        <v>104217.96</v>
+      </c>
+      <c r="C46" t="n">
+        <v>142614.86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10300.98</v>
+        <v>80564.41</v>
+      </c>
+      <c r="C47" t="n">
+        <v>80403.62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1340836.12</v>
+        <v>557663.28</v>
+      </c>
+      <c r="C48" t="n">
+        <v>601966.65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4213009.04</v>
+        <v>25652510.76</v>
+      </c>
+      <c r="C49" t="n">
+        <v>27690465.81</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,625 +443,501 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400112.01</v>
-      </c>
-      <c r="C2" t="n">
-        <v>415270.78</v>
+        <v>28156822.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1277644.43</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1270798.49</v>
+        <v>586600.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151739.83</v>
-      </c>
-      <c r="C4" t="n">
-        <v>166695.94</v>
+        <v>415270.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223024.19</v>
-      </c>
-      <c r="C5" t="n">
-        <v>276849.27</v>
+        <v>1270798.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>389618.58</v>
-      </c>
-      <c r="C6" t="n">
-        <v>389935.77</v>
+        <v>166695.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>818056.71</v>
-      </c>
-      <c r="C7" t="n">
-        <v>877114.3</v>
+        <v>276849.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33653.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33664.45</v>
+        <v>389935.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>646567.34</v>
-      </c>
-      <c r="C9" t="n">
-        <v>646447.65</v>
+        <v>150.71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55289.85</v>
-      </c>
-      <c r="C10" t="n">
-        <v>55226.19</v>
+        <v>877114.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2797.52</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2803.67</v>
+        <v>458758.84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2193.46</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2207.1</v>
+        <v>33664.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>812395.33</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1081989.66</v>
+        <v>646447.65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338555.2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>393366.13</v>
+        <v>55226.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2064292.4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2055285.96</v>
+        <v>2803.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1427221.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1427373.73</v>
+        <v>2207.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>692928.48</v>
-      </c>
-      <c r="C17" t="n">
-        <v>692847.28</v>
+        <v>1081989.66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6030.93</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5745.45</v>
+        <v>393366.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>864794.3199999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>863971.53</v>
+        <v>2055285.96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155486.92</v>
-      </c>
-      <c r="C20" t="n">
-        <v>155358.8</v>
+        <v>10740.32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>226781.02</v>
-      </c>
-      <c r="C21" t="n">
-        <v>227813.11</v>
+        <v>1427373.73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2999.63</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3005.23</v>
+        <v>692847.28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>732751.67</v>
-      </c>
-      <c r="C23" t="n">
-        <v>801516.77</v>
+        <v>155358.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>730431.01</v>
-      </c>
-      <c r="C24" t="n">
-        <v>789073.59</v>
+        <v>3005.23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>798851.29</v>
-      </c>
-      <c r="C25" t="n">
-        <v>951415.41</v>
+        <v>5745.45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>688552.34</v>
-      </c>
-      <c r="C26" t="n">
-        <v>728763.61</v>
+        <v>863971.53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>160107.1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>160124.3</v>
+        <v>227813.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23434.87</v>
-      </c>
-      <c r="C28" t="n">
-        <v>23428.99</v>
+        <v>801516.77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>447295.72</v>
-      </c>
-      <c r="C29" t="n">
-        <v>497222.5</v>
+        <v>789073.59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>644115.34</v>
-      </c>
-      <c r="C30" t="n">
-        <v>684012.05</v>
+        <v>951415.41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>178650.87</v>
-      </c>
-      <c r="C31" t="n">
-        <v>178648.66</v>
+        <v>728763.61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2399.75</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3293.51</v>
+        <v>160124.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2399.75</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3293.51</v>
+        <v>23428.99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>165476.87</v>
-      </c>
-      <c r="C34" t="n">
-        <v>176968.13</v>
+        <v>497222.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69048.17</v>
-      </c>
-      <c r="C35" t="n">
-        <v>69023.66</v>
+        <v>684012.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>155076.9</v>
-      </c>
-      <c r="C36" t="n">
-        <v>154990.57</v>
+        <v>178648.66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361515.15</v>
-      </c>
-      <c r="C37" t="n">
-        <v>384522.5</v>
+        <v>3293.51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>712333.59</v>
-      </c>
-      <c r="C38" t="n">
-        <v>712301.29</v>
+        <v>176968.13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>197103.56</v>
-      </c>
-      <c r="C39" t="n">
-        <v>219146.69</v>
+        <v>69023.66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499074.49</v>
-      </c>
-      <c r="C40" t="n">
-        <v>499412.72</v>
+        <v>154990.57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351417.79</v>
-      </c>
-      <c r="C41" t="n">
-        <v>351385.62</v>
+        <v>384522.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>479418.37</v>
-      </c>
-      <c r="C42" t="n">
-        <v>575200.85</v>
+        <v>712301.29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1204636.15</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1203933.93</v>
+        <v>219146.69</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4212576.68</v>
-      </c>
-      <c r="C44" t="n">
-        <v>5196347.47</v>
+        <v>499412.72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2058878.11</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2059650.51</v>
+        <v>351385.62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>104217.96</v>
-      </c>
-      <c r="C46" t="n">
-        <v>142614.86</v>
+        <v>575200.85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>80564.41</v>
-      </c>
-      <c r="C47" t="n">
-        <v>80403.62</v>
+        <v>1203933.93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>557663.28</v>
-      </c>
-      <c r="C48" t="n">
-        <v>601966.65</v>
+        <v>5196347.47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25652510.76</v>
-      </c>
-      <c r="C49" t="n">
-        <v>27690465.81</v>
+        <v>2059650.51</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>142614.86</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>80403.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,638 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28156822.17</v>
+        <v>415270.78</v>
+      </c>
+      <c r="C2" t="n">
+        <v>481772.99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>586600.46</v>
+        <v>1270798.49</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1302259.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415270.78</v>
+        <v>166695.94</v>
+      </c>
+      <c r="C4" t="n">
+        <v>179770.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270798.49</v>
+        <v>276849.27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>276800.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166695.94</v>
+        <v>389935.77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>504610.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>276849.27</v>
+        <v>150.71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>143.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>389935.77</v>
+        <v>877114.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>877123.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.71</v>
+        <v>458758.84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>491182.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>877114.3</v>
+        <v>33664.45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25692.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>458758.84</v>
+        <v>646447.65</v>
+      </c>
+      <c r="C11" t="n">
+        <v>647123.4300000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33664.45</v>
+        <v>55226.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>55246.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>646447.65</v>
+        <v>2803.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2800.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55226.19</v>
+        <v>2207.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2173.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2803.67</v>
+        <v>1081989.66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1250982.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2207.1</v>
+        <v>393366.13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>383510.49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1081989.66</v>
+        <v>2055285.96</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2056167.82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>393366.13</v>
+        <v>10740.32</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10746.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2055285.96</v>
-      </c>
+        <v>1427373.73</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10740.32</v>
-      </c>
+        <v>692847.28</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1427373.73</v>
-      </c>
+        <v>155358.8</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>692847.28</v>
-      </c>
+        <v>3005.23</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>155358.8</v>
-      </c>
+        <v>5745.45</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3005.23</v>
-      </c>
+        <v>863971.53</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5745.45</v>
-      </c>
+        <v>227813.11</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>863971.53</v>
-      </c>
+        <v>801516.77</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>227813.11</v>
-      </c>
+        <v>789073.59</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801516.77</v>
-      </c>
+        <v>951415.41</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>789073.59</v>
+        <v>728763.61</v>
+      </c>
+      <c r="C29" t="n">
+        <v>774762.45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>951415.41</v>
+        <v>160124.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>168095.66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728763.61</v>
+        <v>23428.99</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23438.39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160124.3</v>
+        <v>497222.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>527029.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23428.99</v>
+        <v>684012.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>818839.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>497222.5</v>
+        <v>178648.66</v>
+      </c>
+      <c r="C34" t="n">
+        <v>186971.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>684012.05</v>
+        <v>3293.51</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3306.52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178648.66</v>
+        <v>176968.13</v>
+      </c>
+      <c r="C36" t="n">
+        <v>179599.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3293.51</v>
+        <v>69023.66</v>
+      </c>
+      <c r="C37" t="n">
+        <v>68983.42999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>176968.13</v>
+        <v>154990.57</v>
+      </c>
+      <c r="C38" t="n">
+        <v>155086.04</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69023.66</v>
-      </c>
+        <v>384522.5</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154990.57</v>
+        <v>712301.29</v>
+      </c>
+      <c r="C40" t="n">
+        <v>712129.48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>384522.5</v>
+        <v>219146.69</v>
+      </c>
+      <c r="C41" t="n">
+        <v>229081.57</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>712301.29</v>
+        <v>499412.72</v>
+      </c>
+      <c r="C42" t="n">
+        <v>499169.51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>219146.69</v>
+        <v>351385.62</v>
+      </c>
+      <c r="C43" t="n">
+        <v>351397.41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>499412.72</v>
+        <v>575200.85</v>
+      </c>
+      <c r="C44" t="n">
+        <v>648261.55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>351385.62</v>
+        <v>1203933.93</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1204311.98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>575200.85</v>
+        <v>5196347.47</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6129297.29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1203933.93</v>
+        <v>2059650.51</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2060160.46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5196347.47</v>
+        <v>142614.86</v>
+      </c>
+      <c r="C48" t="n">
+        <v>175036.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2059650.51</v>
+        <v>80403.62</v>
+      </c>
+      <c r="C49" t="n">
+        <v>80466.45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>142614.86</v>
+        <v>586600.46</v>
+      </c>
+      <c r="C50" t="n">
+        <v>636311.67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>80403.62</v>
+        <v>28156822.17</v>
+      </c>
+      <c r="C51" t="n">
+        <v>23543531.89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>481772.99</v>
       </c>
+      <c r="D2" t="n">
+        <v>534772.59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>1302259.16</v>
       </c>
+      <c r="D3" t="n">
+        <v>1320798.86</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>179770.69</v>
       </c>
+      <c r="D4" t="n">
+        <v>188773.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>276800.16</v>
       </c>
+      <c r="D5" t="n">
+        <v>280918.85</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>504610.36</v>
       </c>
+      <c r="D6" t="n">
+        <v>504274.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>143.82</v>
       </c>
+      <c r="D7" t="n">
+        <v>140.47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>877123.52</v>
       </c>
+      <c r="D8" t="n">
+        <v>936853.51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>491182.96</v>
       </c>
+      <c r="D9" t="n">
+        <v>491368.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>25692.65</v>
       </c>
+      <c r="D10" t="n">
+        <v>25715.49</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>647123.4300000001</v>
       </c>
+      <c r="D11" t="n">
+        <v>644697.99</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>55246.44</v>
       </c>
+      <c r="D12" t="n">
+        <v>55246.81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>2800.76</v>
       </c>
+      <c r="D13" t="n">
+        <v>2799.33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>2173.2</v>
       </c>
+      <c r="D14" t="n">
+        <v>2201.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,6 +670,9 @@
       <c r="C15" t="n">
         <v>1250982.01</v>
       </c>
+      <c r="D15" t="n">
+        <v>1195117.45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -639,6 +686,9 @@
       <c r="C16" t="n">
         <v>383510.49</v>
       </c>
+      <c r="D16" t="n">
+        <v>381004.75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -652,6 +702,9 @@
       <c r="C17" t="n">
         <v>2056167.82</v>
       </c>
+      <c r="D17" t="n">
+        <v>2056812.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -665,6 +718,9 @@
       <c r="C18" t="n">
         <v>10746.59</v>
       </c>
+      <c r="D18" t="n">
+        <v>10740.54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -676,6 +732,9 @@
         <v>1427373.73</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1510606.82</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -687,6 +746,9 @@
         <v>692847.28</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>692794.71</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -698,6 +760,9 @@
         <v>155358.8</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>155288.03</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -709,6 +774,9 @@
         <v>3005.23</v>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>2998.58</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -720,6 +788,9 @@
         <v>5745.45</v>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>5737.86</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -731,6 +802,9 @@
         <v>863971.53</v>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>853327.37</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -742,6 +816,9 @@
         <v>227813.11</v>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>227548.67</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -753,6 +830,9 @@
         <v>801516.77</v>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>1090209.39</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -764,6 +844,9 @@
         <v>789073.59</v>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1114953.13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -775,6 +858,9 @@
         <v>951415.41</v>
       </c>
       <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>1040614.86</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -788,6 +874,9 @@
       <c r="C29" t="n">
         <v>774762.45</v>
       </c>
+      <c r="D29" t="n">
+        <v>777410.3100000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -801,6 +890,9 @@
       <c r="C30" t="n">
         <v>168095.66</v>
       </c>
+      <c r="D30" t="n">
+        <v>158086.43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -814,6 +906,9 @@
       <c r="C31" t="n">
         <v>23438.39</v>
       </c>
+      <c r="D31" t="n">
+        <v>23436.26</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -827,6 +922,9 @@
       <c r="C32" t="n">
         <v>527029.26</v>
       </c>
+      <c r="D32" t="n">
+        <v>557314.03</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -840,6 +938,9 @@
       <c r="C33" t="n">
         <v>818839.23</v>
       </c>
+      <c r="D33" t="n">
+        <v>698816.87</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -853,6 +954,9 @@
       <c r="C34" t="n">
         <v>186971.6</v>
       </c>
+      <c r="D34" t="n">
+        <v>240065.24</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -866,6 +970,9 @@
       <c r="C35" t="n">
         <v>3306.52</v>
       </c>
+      <c r="D35" t="n">
+        <v>3660.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -879,6 +986,9 @@
       <c r="C36" t="n">
         <v>179599.7</v>
       </c>
+      <c r="D36" t="n">
+        <v>194237.63</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -892,6 +1002,9 @@
       <c r="C37" t="n">
         <v>68983.42999999999</v>
       </c>
+      <c r="D37" t="n">
+        <v>69027.87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -905,6 +1018,9 @@
       <c r="C38" t="n">
         <v>155086.04</v>
       </c>
+      <c r="D38" t="n">
+        <v>111876.62</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -916,6 +1032,9 @@
         <v>384522.5</v>
       </c>
       <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>384460.62</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -929,6 +1048,9 @@
       <c r="C40" t="n">
         <v>712129.48</v>
       </c>
+      <c r="D40" t="n">
+        <v>816461.65</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -942,6 +1064,9 @@
       <c r="C41" t="n">
         <v>229081.57</v>
       </c>
+      <c r="D41" t="n">
+        <v>236210.67</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -955,6 +1080,9 @@
       <c r="C42" t="n">
         <v>499169.51</v>
       </c>
+      <c r="D42" t="n">
+        <v>499215.85</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -968,6 +1096,9 @@
       <c r="C43" t="n">
         <v>351397.41</v>
       </c>
+      <c r="D43" t="n">
+        <v>330323.92</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -981,6 +1112,9 @@
       <c r="C44" t="n">
         <v>648261.55</v>
       </c>
+      <c r="D44" t="n">
+        <v>822965.5699999999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -994,6 +1128,9 @@
       <c r="C45" t="n">
         <v>1204311.98</v>
       </c>
+      <c r="D45" t="n">
+        <v>1144753.12</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1007,6 +1144,9 @@
       <c r="C46" t="n">
         <v>6129297.29</v>
       </c>
+      <c r="D46" t="n">
+        <v>5769449.99</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1020,6 +1160,9 @@
       <c r="C47" t="n">
         <v>2060160.46</v>
       </c>
+      <c r="D47" t="n">
+        <v>2058718.35</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1033,6 +1176,9 @@
       <c r="C48" t="n">
         <v>175036.86</v>
       </c>
+      <c r="D48" t="n">
+        <v>175109.64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1046,6 +1192,9 @@
       <c r="C49" t="n">
         <v>80466.45</v>
       </c>
+      <c r="D49" t="n">
+        <v>95943.16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1059,6 +1208,9 @@
       <c r="C50" t="n">
         <v>636311.67</v>
       </c>
+      <c r="D50" t="n">
+        <v>635288.74</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1071,6 +1223,9 @@
       </c>
       <c r="C51" t="n">
         <v>23543531.89</v>
+      </c>
+      <c r="D51" t="n">
+        <v>30493859.57</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>534772.59</v>
       </c>
+      <c r="E2" t="n">
+        <v>534392.9300000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>1320798.86</v>
       </c>
+      <c r="E3" t="n">
+        <v>1368437.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>188773.75</v>
       </c>
+      <c r="E4" t="n">
+        <v>188670.21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>280918.85</v>
       </c>
+      <c r="E5" t="n">
+        <v>280929.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>504274.05</v>
       </c>
+      <c r="E6" t="n">
+        <v>583517.29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>140.47</v>
       </c>
+      <c r="E7" t="n">
+        <v>143.13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>936853.51</v>
       </c>
+      <c r="E8" t="n">
+        <v>936856.3100000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>491368.15</v>
       </c>
+      <c r="E9" t="n">
+        <v>491181.85</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>25715.49</v>
       </c>
+      <c r="E10" t="n">
+        <v>25708.89</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>644697.99</v>
       </c>
+      <c r="E11" t="n">
+        <v>646053.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="D12" t="n">
         <v>55246.81</v>
       </c>
+      <c r="E12" t="n">
+        <v>55231.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -641,6 +679,9 @@
       <c r="D13" t="n">
         <v>2799.33</v>
       </c>
+      <c r="E13" t="n">
+        <v>2801.46</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +698,9 @@
       <c r="D14" t="n">
         <v>2201.31</v>
       </c>
+      <c r="E14" t="n">
+        <v>2177.04</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -673,6 +717,9 @@
       <c r="D15" t="n">
         <v>1195117.45</v>
       </c>
+      <c r="E15" t="n">
+        <v>1034835.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -689,6 +736,9 @@
       <c r="D16" t="n">
         <v>381004.75</v>
       </c>
+      <c r="E16" t="n">
+        <v>380021.12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -705,6 +755,9 @@
       <c r="D17" t="n">
         <v>2056812.2</v>
       </c>
+      <c r="E17" t="n">
+        <v>2040548.37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -720,6 +773,9 @@
       </c>
       <c r="D18" t="n">
         <v>10740.54</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10741.39</v>
       </c>
     </row>
     <row r="19">
@@ -735,6 +791,9 @@
       <c r="D19" t="n">
         <v>1510606.82</v>
       </c>
+      <c r="E19" t="n">
+        <v>1510114.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -749,6 +808,9 @@
       <c r="D20" t="n">
         <v>692794.71</v>
       </c>
+      <c r="E20" t="n">
+        <v>692701.0600000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -763,6 +825,9 @@
       <c r="D21" t="n">
         <v>155288.03</v>
       </c>
+      <c r="E21" t="n">
+        <v>155412.49</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -777,6 +842,9 @@
       <c r="D22" t="n">
         <v>2998.58</v>
       </c>
+      <c r="E22" t="n">
+        <v>2996.08</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -791,6 +859,9 @@
       <c r="D23" t="n">
         <v>5737.86</v>
       </c>
+      <c r="E23" t="n">
+        <v>5744.73</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -805,6 +876,9 @@
       <c r="D24" t="n">
         <v>853327.37</v>
       </c>
+      <c r="E24" t="n">
+        <v>837845.29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -819,6 +893,9 @@
       <c r="D25" t="n">
         <v>227548.67</v>
       </c>
+      <c r="E25" t="n">
+        <v>227772.94</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -833,6 +910,9 @@
       <c r="D26" t="n">
         <v>1090209.39</v>
       </c>
+      <c r="E26" t="n">
+        <v>1208252.81</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -847,6 +927,9 @@
       <c r="D27" t="n">
         <v>1114953.13</v>
       </c>
+      <c r="E27" t="n">
+        <v>1145836.93</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -861,6 +944,9 @@
       <c r="D28" t="n">
         <v>1040614.86</v>
       </c>
+      <c r="E28" t="n">
+        <v>1226647.53</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -877,6 +963,9 @@
       <c r="D29" t="n">
         <v>777410.3100000001</v>
       </c>
+      <c r="E29" t="n">
+        <v>817109.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -893,6 +982,9 @@
       <c r="D30" t="n">
         <v>158086.43</v>
       </c>
+      <c r="E30" t="n">
+        <v>163095.87</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -909,6 +1001,9 @@
       <c r="D31" t="n">
         <v>23436.26</v>
       </c>
+      <c r="E31" t="n">
+        <v>23448.76</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -925,6 +1020,9 @@
       <c r="D32" t="n">
         <v>557314.03</v>
       </c>
+      <c r="E32" t="n">
+        <v>547210.91</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -941,6 +1039,9 @@
       <c r="D33" t="n">
         <v>698816.87</v>
       </c>
+      <c r="E33" t="n">
+        <v>733523.4300000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -957,6 +1058,9 @@
       <c r="D34" t="n">
         <v>240065.24</v>
       </c>
+      <c r="E34" t="n">
+        <v>251453.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -973,6 +1077,9 @@
       <c r="D35" t="n">
         <v>3660.25</v>
       </c>
+      <c r="E35" t="n">
+        <v>3668.43</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -989,6 +1096,9 @@
       <c r="D36" t="n">
         <v>194237.63</v>
       </c>
+      <c r="E36" t="n">
+        <v>218520.04</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1005,6 +1115,9 @@
       <c r="D37" t="n">
         <v>69027.87</v>
       </c>
+      <c r="E37" t="n">
+        <v>68979.39999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1020,6 +1133,9 @@
       </c>
       <c r="D38" t="n">
         <v>111876.62</v>
+      </c>
+      <c r="E38" t="n">
+        <v>126796.8</v>
       </c>
     </row>
     <row r="39">
@@ -1035,6 +1151,9 @@
       <c r="D39" t="n">
         <v>384460.62</v>
       </c>
+      <c r="E39" t="n">
+        <v>384494.36</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1051,6 +1170,9 @@
       <c r="D40" t="n">
         <v>816461.65</v>
       </c>
+      <c r="E40" t="n">
+        <v>816347.83</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1067,6 +1189,9 @@
       <c r="D41" t="n">
         <v>236210.67</v>
       </c>
+      <c r="E41" t="n">
+        <v>252057.44</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1083,6 +1208,9 @@
       <c r="D42" t="n">
         <v>499215.85</v>
       </c>
+      <c r="E42" t="n">
+        <v>499379.09</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1099,6 +1227,9 @@
       <c r="D43" t="n">
         <v>330323.92</v>
       </c>
+      <c r="E43" t="n">
+        <v>324345.76</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1115,6 +1246,9 @@
       <c r="D44" t="n">
         <v>822965.5699999999</v>
       </c>
+      <c r="E44" t="n">
+        <v>822798.49</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1131,6 +1265,9 @@
       <c r="D45" t="n">
         <v>1144753.12</v>
       </c>
+      <c r="E45" t="n">
+        <v>969327.3199999999</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1147,6 +1284,7 @@
       <c r="D46" t="n">
         <v>5769449.99</v>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1163,6 +1301,9 @@
       <c r="D47" t="n">
         <v>2058718.35</v>
       </c>
+      <c r="E47" t="n">
+        <v>2060247.51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1179,6 +1320,9 @@
       <c r="D48" t="n">
         <v>175109.64</v>
       </c>
+      <c r="E48" t="n">
+        <v>175032.99</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1195,6 +1339,7 @@
       <c r="D49" t="n">
         <v>95943.16</v>
       </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1211,6 +1356,9 @@
       <c r="D50" t="n">
         <v>635288.74</v>
       </c>
+      <c r="E50" t="n">
+        <v>540291.47</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1226,6 +1374,9 @@
       </c>
       <c r="D51" t="n">
         <v>30493859.57</v>
+      </c>
+      <c r="E51" t="n">
+        <v>24853407.63</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>534392.9300000001</v>
       </c>
+      <c r="F2" t="n">
+        <v>554771.3199999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>1368437.02</v>
       </c>
+      <c r="F3" t="n">
+        <v>1315661.32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>188670.21</v>
       </c>
+      <c r="F4" t="n">
+        <v>209698.91</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>280929.31</v>
       </c>
+      <c r="F5" t="n">
+        <v>280865.72</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>583517.29</v>
       </c>
+      <c r="F6" t="n">
+        <v>684006.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>143.13</v>
       </c>
+      <c r="F7" t="n">
+        <v>140.11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>936856.3100000001</v>
       </c>
+      <c r="F8" t="n">
+        <v>1153946.72</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>491181.85</v>
       </c>
+      <c r="F9" t="n">
+        <v>491379.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>25708.89</v>
       </c>
+      <c r="F10" t="n">
+        <v>25740.87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>646053.6</v>
       </c>
+      <c r="F11" t="n">
+        <v>645621.64</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -663,6 +698,9 @@
       <c r="E12" t="n">
         <v>55231.31</v>
       </c>
+      <c r="F12" t="n">
+        <v>55135.74</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -682,6 +720,9 @@
       <c r="E13" t="n">
         <v>2801.46</v>
       </c>
+      <c r="F13" t="n">
+        <v>2802.67</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -701,6 +742,9 @@
       <c r="E14" t="n">
         <v>2177.04</v>
       </c>
+      <c r="F14" t="n">
+        <v>2199.22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -720,6 +764,9 @@
       <c r="E15" t="n">
         <v>1034835.25</v>
       </c>
+      <c r="F15" t="n">
+        <v>1034918.55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -739,6 +786,9 @@
       <c r="E16" t="n">
         <v>380021.12</v>
       </c>
+      <c r="F16" t="n">
+        <v>384076.32</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -758,6 +808,9 @@
       <c r="E17" t="n">
         <v>2040548.37</v>
       </c>
+      <c r="F17" t="n">
+        <v>2041516.86</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -776,6 +829,9 @@
       </c>
       <c r="E18" t="n">
         <v>10741.39</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10748.06</v>
       </c>
     </row>
     <row r="19">
@@ -794,6 +850,9 @@
       <c r="E19" t="n">
         <v>1510114.06</v>
       </c>
+      <c r="F19" t="n">
+        <v>1510957.69</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -811,6 +870,9 @@
       <c r="E20" t="n">
         <v>692701.0600000001</v>
       </c>
+      <c r="F20" t="n">
+        <v>692388.88</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -828,6 +890,9 @@
       <c r="E21" t="n">
         <v>155412.49</v>
       </c>
+      <c r="F21" t="n">
+        <v>155435.49</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -845,6 +910,9 @@
       <c r="E22" t="n">
         <v>2996.08</v>
       </c>
+      <c r="F22" t="n">
+        <v>2994.53</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -862,6 +930,9 @@
       <c r="E23" t="n">
         <v>5744.73</v>
       </c>
+      <c r="F23" t="n">
+        <v>5741.59</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -879,6 +950,9 @@
       <c r="E24" t="n">
         <v>837845.29</v>
       </c>
+      <c r="F24" t="n">
+        <v>838210.74</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -896,6 +970,9 @@
       <c r="E25" t="n">
         <v>227772.94</v>
       </c>
+      <c r="F25" t="n">
+        <v>227740.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -913,6 +990,9 @@
       <c r="E26" t="n">
         <v>1208252.81</v>
       </c>
+      <c r="F26" t="n">
+        <v>1245477.76</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -930,6 +1010,9 @@
       <c r="E27" t="n">
         <v>1145836.93</v>
       </c>
+      <c r="F27" t="n">
+        <v>1146235.66</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -947,6 +1030,9 @@
       <c r="E28" t="n">
         <v>1226647.53</v>
       </c>
+      <c r="F28" t="n">
+        <v>1219736.24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -966,6 +1052,9 @@
       <c r="E29" t="n">
         <v>817109.2</v>
       </c>
+      <c r="F29" t="n">
+        <v>822265.92</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -985,6 +1074,9 @@
       <c r="E30" t="n">
         <v>163095.87</v>
       </c>
+      <c r="F30" t="n">
+        <v>163125.28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1004,6 +1096,9 @@
       <c r="E31" t="n">
         <v>23448.76</v>
       </c>
+      <c r="F31" t="n">
+        <v>23443.89</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1023,6 +1118,9 @@
       <c r="E32" t="n">
         <v>547210.91</v>
       </c>
+      <c r="F32" t="n">
+        <v>537219.0600000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1042,6 +1140,9 @@
       <c r="E33" t="n">
         <v>733523.4300000001</v>
       </c>
+      <c r="F33" t="n">
+        <v>733509.4300000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1061,6 +1162,9 @@
       <c r="E34" t="n">
         <v>251453.6</v>
       </c>
+      <c r="F34" t="n">
+        <v>249070.29</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1080,6 +1184,9 @@
       <c r="E35" t="n">
         <v>3668.43</v>
       </c>
+      <c r="F35" t="n">
+        <v>3654.98</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1099,6 +1206,9 @@
       <c r="E36" t="n">
         <v>218520.04</v>
       </c>
+      <c r="F36" t="n">
+        <v>220959.96</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1118,6 +1228,9 @@
       <c r="E37" t="n">
         <v>68979.39999999999</v>
       </c>
+      <c r="F37" t="n">
+        <v>68960.09</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1136,6 +1249,9 @@
       </c>
       <c r="E38" t="n">
         <v>126796.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>134024.19</v>
       </c>
     </row>
     <row r="39">
@@ -1154,6 +1270,9 @@
       <c r="E39" t="n">
         <v>384494.36</v>
       </c>
+      <c r="F39" t="n">
+        <v>426540.86</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1173,6 +1292,9 @@
       <c r="E40" t="n">
         <v>816347.83</v>
       </c>
+      <c r="F40" t="n">
+        <v>816598.02</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1192,6 +1314,9 @@
       <c r="E41" t="n">
         <v>252057.44</v>
       </c>
+      <c r="F41" t="n">
+        <v>252232.85</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1211,6 +1336,9 @@
       <c r="E42" t="n">
         <v>499379.09</v>
       </c>
+      <c r="F42" t="n">
+        <v>525272.1800000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1230,6 +1358,9 @@
       <c r="E43" t="n">
         <v>324345.76</v>
       </c>
+      <c r="F43" t="n">
+        <v>350464.02</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1249,6 +1380,9 @@
       <c r="E44" t="n">
         <v>822798.49</v>
       </c>
+      <c r="F44" t="n">
+        <v>823684.6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1268,6 +1402,9 @@
       <c r="E45" t="n">
         <v>969327.3199999999</v>
       </c>
+      <c r="F45" t="n">
+        <v>970523.6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1285,6 +1422,7 @@
         <v>5769449.99</v>
       </c>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1304,6 +1442,9 @@
       <c r="E47" t="n">
         <v>2060247.51</v>
       </c>
+      <c r="F47" t="n">
+        <v>2182359.9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1323,6 +1464,9 @@
       <c r="E48" t="n">
         <v>175032.99</v>
       </c>
+      <c r="F48" t="n">
+        <v>175054.35</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1340,6 +1484,7 @@
         <v>95943.16</v>
       </c>
       <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1359,6 +1504,9 @@
       <c r="E50" t="n">
         <v>540291.47</v>
       </c>
+      <c r="F50" t="n">
+        <v>552545.9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1377,6 +1525,9 @@
       </c>
       <c r="E51" t="n">
         <v>24853407.63</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25417111.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>554771.3199999999</v>
       </c>
+      <c r="G2" t="n">
+        <v>555059.64</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>1315661.32</v>
       </c>
+      <c r="G3" t="n">
+        <v>1351217.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>209698.91</v>
       </c>
+      <c r="G4" t="n">
+        <v>210333.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>280865.72</v>
       </c>
+      <c r="G5" t="n">
+        <v>280925.87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>684006.17</v>
       </c>
+      <c r="G6" t="n">
+        <v>683986.86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>140.11</v>
       </c>
+      <c r="G7" t="n">
+        <v>141.16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>1153946.72</v>
       </c>
+      <c r="G8" t="n">
+        <v>1154166.81</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>491379.23</v>
       </c>
+      <c r="G9" t="n">
+        <v>512483.61</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>25740.87</v>
       </c>
+      <c r="G10" t="n">
+        <v>30016.74</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>645621.64</v>
       </c>
+      <c r="G11" t="n">
+        <v>644319.64</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>55135.74</v>
       </c>
+      <c r="G12" t="n">
+        <v>55146.97</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -723,6 +761,9 @@
       <c r="F13" t="n">
         <v>2802.67</v>
       </c>
+      <c r="G13" t="n">
+        <v>2798.63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -745,6 +786,9 @@
       <c r="F14" t="n">
         <v>2199.22</v>
       </c>
+      <c r="G14" t="n">
+        <v>1872.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -767,6 +811,9 @@
       <c r="F15" t="n">
         <v>1034918.55</v>
       </c>
+      <c r="G15" t="n">
+        <v>1055490.68</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -789,6 +836,9 @@
       <c r="F16" t="n">
         <v>384076.32</v>
       </c>
+      <c r="G16" t="n">
+        <v>354833.99</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -811,6 +861,9 @@
       <c r="F17" t="n">
         <v>2041516.86</v>
       </c>
+      <c r="G17" t="n">
+        <v>2030328.85</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -832,6 +885,9 @@
       </c>
       <c r="F18" t="n">
         <v>10748.06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10741.57</v>
       </c>
     </row>
     <row r="19">
@@ -853,6 +909,9 @@
       <c r="F19" t="n">
         <v>1510957.69</v>
       </c>
+      <c r="G19" t="n">
+        <v>1510698.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -873,6 +932,9 @@
       <c r="F20" t="n">
         <v>692388.88</v>
       </c>
+      <c r="G20" t="n">
+        <v>692798.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -893,6 +955,9 @@
       <c r="F21" t="n">
         <v>155435.49</v>
       </c>
+      <c r="G21" t="n">
+        <v>155429.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -913,6 +978,9 @@
       <c r="F22" t="n">
         <v>2994.53</v>
       </c>
+      <c r="G22" t="n">
+        <v>2994.68</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -933,6 +1001,9 @@
       <c r="F23" t="n">
         <v>5741.59</v>
       </c>
+      <c r="G23" t="n">
+        <v>5739.08</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -953,6 +1024,9 @@
       <c r="F24" t="n">
         <v>838210.74</v>
       </c>
+      <c r="G24" t="n">
+        <v>837192.28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -973,6 +1047,9 @@
       <c r="F25" t="n">
         <v>227740.08</v>
       </c>
+      <c r="G25" t="n">
+        <v>227710.35</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -993,6 +1070,9 @@
       <c r="F26" t="n">
         <v>1245477.76</v>
       </c>
+      <c r="G26" t="n">
+        <v>1174434.68</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1013,6 +1093,9 @@
       <c r="F27" t="n">
         <v>1146235.66</v>
       </c>
+      <c r="G27" t="n">
+        <v>1062625.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1033,6 +1116,9 @@
       <c r="F28" t="n">
         <v>1219736.24</v>
       </c>
+      <c r="G28" t="n">
+        <v>1220085.82</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1055,6 +1141,9 @@
       <c r="F29" t="n">
         <v>822265.92</v>
       </c>
+      <c r="G29" t="n">
+        <v>856853.84</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1077,6 +1166,9 @@
       <c r="F30" t="n">
         <v>163125.28</v>
       </c>
+      <c r="G30" t="n">
+        <v>163093.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1099,6 +1191,9 @@
       <c r="F31" t="n">
         <v>23443.89</v>
       </c>
+      <c r="G31" t="n">
+        <v>23434.99</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1121,6 +1216,9 @@
       <c r="F32" t="n">
         <v>537219.0600000001</v>
       </c>
+      <c r="G32" t="n">
+        <v>517236.81</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1143,6 +1241,9 @@
       <c r="F33" t="n">
         <v>733509.4300000001</v>
       </c>
+      <c r="G33" t="n">
+        <v>739039.12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1165,6 +1266,9 @@
       <c r="F34" t="n">
         <v>249070.29</v>
       </c>
+      <c r="G34" t="n">
+        <v>249013.09</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1187,6 +1291,9 @@
       <c r="F35" t="n">
         <v>3654.98</v>
       </c>
+      <c r="G35" t="n">
+        <v>3660.16</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1209,6 +1316,9 @@
       <c r="F36" t="n">
         <v>220959.96</v>
       </c>
+      <c r="G36" t="n">
+        <v>220934.33</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1231,6 +1341,9 @@
       <c r="F37" t="n">
         <v>68960.09</v>
       </c>
+      <c r="G37" t="n">
+        <v>69073.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1252,6 +1365,9 @@
       </c>
       <c r="F38" t="n">
         <v>134024.19</v>
+      </c>
+      <c r="G38" t="n">
+        <v>134017.51</v>
       </c>
     </row>
     <row r="39">
@@ -1273,6 +1389,9 @@
       <c r="F39" t="n">
         <v>426540.86</v>
       </c>
+      <c r="G39" t="n">
+        <v>446627.76</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1295,6 +1414,9 @@
       <c r="F40" t="n">
         <v>816598.02</v>
       </c>
+      <c r="G40" t="n">
+        <v>816697.1800000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1317,6 +1439,9 @@
       <c r="F41" t="n">
         <v>252232.85</v>
       </c>
+      <c r="G41" t="n">
+        <v>252231.38</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1339,6 +1464,9 @@
       <c r="F42" t="n">
         <v>525272.1800000001</v>
       </c>
+      <c r="G42" t="n">
+        <v>525351.38</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1361,6 +1489,9 @@
       <c r="F43" t="n">
         <v>350464.02</v>
       </c>
+      <c r="G43" t="n">
+        <v>354567.47</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1383,6 +1514,9 @@
       <c r="F44" t="n">
         <v>823684.6</v>
       </c>
+      <c r="G44" t="n">
+        <v>823041.63</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1405,6 +1539,9 @@
       <c r="F45" t="n">
         <v>970523.6</v>
       </c>
+      <c r="G45" t="n">
+        <v>973379</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1423,6 +1560,7 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1445,6 +1583,9 @@
       <c r="F47" t="n">
         <v>2182359.9</v>
       </c>
+      <c r="G47" t="n">
+        <v>2290050.56</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1467,6 +1608,9 @@
       <c r="F48" t="n">
         <v>175054.35</v>
       </c>
+      <c r="G48" t="n">
+        <v>175085.68</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1485,6 +1629,7 @@
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1507,6 +1652,9 @@
       <c r="F50" t="n">
         <v>552545.9</v>
       </c>
+      <c r="G50" t="n">
+        <v>553412.22</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1528,6 +1676,9 @@
       </c>
       <c r="F51" t="n">
         <v>25417111.56</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25456962.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>555059.64</v>
       </c>
+      <c r="H2" t="n">
+        <v>598294.64</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>1351217.02</v>
       </c>
+      <c r="H3" t="n">
+        <v>1286365.41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>210333.15</v>
       </c>
+      <c r="H4" t="n">
+        <v>209713.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>280925.87</v>
       </c>
+      <c r="H5" t="n">
+        <v>281013.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>683986.86</v>
       </c>
+      <c r="H6" t="n">
+        <v>683987.86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>141.16</v>
       </c>
+      <c r="H7" t="n">
+        <v>141.33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>1154166.81</v>
       </c>
+      <c r="H8" t="n">
+        <v>1154021.97</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>512483.61</v>
       </c>
+      <c r="H9" t="n">
+        <v>512407.28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>30016.74</v>
       </c>
+      <c r="H10" t="n">
+        <v>29998.43</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>644319.64</v>
       </c>
+      <c r="H11" t="n">
+        <v>644550.46</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>55146.97</v>
       </c>
+      <c r="H12" t="n">
+        <v>55121.44</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>2798.63</v>
       </c>
+      <c r="H13" t="n">
+        <v>2797.08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>1872.35</v>
       </c>
+      <c r="H14" t="n">
+        <v>1879.15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>1055490.68</v>
       </c>
+      <c r="H15" t="n">
+        <v>1055305.29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -839,6 +886,9 @@
       <c r="G16" t="n">
         <v>354833.99</v>
       </c>
+      <c r="H16" t="n">
+        <v>255925.43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -864,6 +914,9 @@
       <c r="G17" t="n">
         <v>2030328.85</v>
       </c>
+      <c r="H17" t="n">
+        <v>2025526.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -888,6 +941,9 @@
       </c>
       <c r="G18" t="n">
         <v>10741.57</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10751.18</v>
       </c>
     </row>
     <row r="19">
@@ -912,6 +968,9 @@
       <c r="G19" t="n">
         <v>1510698.5</v>
       </c>
+      <c r="H19" t="n">
+        <v>1510125.75</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -935,6 +994,9 @@
       <c r="G20" t="n">
         <v>692798.3</v>
       </c>
+      <c r="H20" t="n">
+        <v>692612.27</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -958,6 +1020,9 @@
       <c r="G21" t="n">
         <v>155429.95</v>
       </c>
+      <c r="H21" t="n">
+        <v>155294.59</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -981,6 +1046,9 @@
       <c r="G22" t="n">
         <v>2994.68</v>
       </c>
+      <c r="H22" t="n">
+        <v>2998.51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1004,6 +1072,9 @@
       <c r="G23" t="n">
         <v>5739.08</v>
       </c>
+      <c r="H23" t="n">
+        <v>5731.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1027,6 +1098,9 @@
       <c r="G24" t="n">
         <v>837192.28</v>
       </c>
+      <c r="H24" t="n">
+        <v>837716.9300000001</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1050,6 +1124,9 @@
       <c r="G25" t="n">
         <v>227710.35</v>
       </c>
+      <c r="H25" t="n">
+        <v>227006.48</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1073,6 +1150,9 @@
       <c r="G26" t="n">
         <v>1174434.68</v>
       </c>
+      <c r="H26" t="n">
+        <v>1099957.94</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1096,6 +1176,9 @@
       <c r="G27" t="n">
         <v>1062625.6</v>
       </c>
+      <c r="H27" t="n">
+        <v>1001370.12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1119,6 +1202,9 @@
       <c r="G28" t="n">
         <v>1220085.82</v>
       </c>
+      <c r="H28" t="n">
+        <v>1270028.73</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1144,6 +1230,9 @@
       <c r="G29" t="n">
         <v>856853.84</v>
       </c>
+      <c r="H29" t="n">
+        <v>882244</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1169,6 +1258,9 @@
       <c r="G30" t="n">
         <v>163093.6</v>
       </c>
+      <c r="H30" t="n">
+        <v>163141.56</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1194,6 +1286,9 @@
       <c r="G31" t="n">
         <v>23434.99</v>
       </c>
+      <c r="H31" t="n">
+        <v>23432.39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1219,6 +1314,9 @@
       <c r="G32" t="n">
         <v>517236.81</v>
       </c>
+      <c r="H32" t="n">
+        <v>522053.99</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1244,6 +1342,9 @@
       <c r="G33" t="n">
         <v>739039.12</v>
       </c>
+      <c r="H33" t="n">
+        <v>783769</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1269,6 +1370,9 @@
       <c r="G34" t="n">
         <v>249013.09</v>
       </c>
+      <c r="H34" t="n">
+        <v>295845.39</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1294,6 +1398,9 @@
       <c r="G35" t="n">
         <v>3660.16</v>
       </c>
+      <c r="H35" t="n">
+        <v>3660.52</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1319,6 +1426,9 @@
       <c r="G36" t="n">
         <v>220934.33</v>
       </c>
+      <c r="H36" t="n">
+        <v>220945.97</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1344,6 +1454,9 @@
       <c r="G37" t="n">
         <v>69073.95</v>
       </c>
+      <c r="H37" t="n">
+        <v>69039.96000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1368,6 +1481,9 @@
       </c>
       <c r="G38" t="n">
         <v>134017.51</v>
+      </c>
+      <c r="H38" t="n">
+        <v>134090.79</v>
       </c>
     </row>
     <row r="39">
@@ -1392,6 +1508,9 @@
       <c r="G39" t="n">
         <v>446627.76</v>
       </c>
+      <c r="H39" t="n">
+        <v>446522.84</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1417,6 +1536,9 @@
       <c r="G40" t="n">
         <v>816697.1800000001</v>
       </c>
+      <c r="H40" t="n">
+        <v>816740.9300000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1442,6 +1564,9 @@
       <c r="G41" t="n">
         <v>252231.38</v>
       </c>
+      <c r="H41" t="n">
+        <v>287088.44</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1467,6 +1592,9 @@
       <c r="G42" t="n">
         <v>525351.38</v>
       </c>
+      <c r="H42" t="n">
+        <v>525363.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1492,6 +1620,9 @@
       <c r="G43" t="n">
         <v>354567.47</v>
       </c>
+      <c r="H43" t="n">
+        <v>355565.18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1517,6 +1648,9 @@
       <c r="G44" t="n">
         <v>823041.63</v>
       </c>
+      <c r="H44" t="n">
+        <v>683745.47</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1541,6 +1675,9 @@
       </c>
       <c r="G45" t="n">
         <v>973379</v>
+      </c>
+      <c r="H45" t="n">
+        <v>969280.55</v>
       </c>
     </row>
     <row r="46">
@@ -1561,6 +1698,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1586,6 +1724,9 @@
       <c r="G47" t="n">
         <v>2290050.56</v>
       </c>
+      <c r="H47" t="n">
+        <v>2290561.01</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1610,6 +1751,9 @@
       </c>
       <c r="G48" t="n">
         <v>175085.68</v>
+      </c>
+      <c r="H48" t="n">
+        <v>175063.77</v>
       </c>
     </row>
     <row r="49">
@@ -1630,6 +1774,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1655,6 +1800,9 @@
       <c r="G50" t="n">
         <v>553412.22</v>
       </c>
+      <c r="H50" t="n">
+        <v>549104.29</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1679,6 +1827,9 @@
       </c>
       <c r="G51" t="n">
         <v>25456962.22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>25258797.14</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>598294.64</v>
       </c>
+      <c r="I2" t="n">
+        <v>498785.52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>1286365.41</v>
       </c>
+      <c r="I3" t="n">
+        <v>1286174.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>209713.2</v>
       </c>
+      <c r="I4" t="n">
+        <v>209719.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>281013.37</v>
       </c>
+      <c r="I5" t="n">
+        <v>280875.16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>683987.86</v>
       </c>
+      <c r="I6" t="n">
+        <v>684054.29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>141.33</v>
       </c>
+      <c r="I7" t="n">
+        <v>138.39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>1154021.97</v>
       </c>
+      <c r="I8" t="n">
+        <v>1154365.53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>512407.28</v>
       </c>
+      <c r="I9" t="n">
+        <v>512540.66</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>29998.43</v>
       </c>
+      <c r="I10" t="n">
+        <v>30024.31</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>644550.46</v>
       </c>
+      <c r="I11" t="n">
+        <v>646008.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -777,6 +812,9 @@
       <c r="H12" t="n">
         <v>55121.44</v>
       </c>
+      <c r="I12" t="n">
+        <v>55134.44</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -805,6 +843,9 @@
       <c r="H13" t="n">
         <v>2797.08</v>
       </c>
+      <c r="I13" t="n">
+        <v>2799.52</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -833,6 +874,9 @@
       <c r="H14" t="n">
         <v>1879.15</v>
       </c>
+      <c r="I14" t="n">
+        <v>1868.01</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -861,6 +905,9 @@
       <c r="H15" t="n">
         <v>1055305.29</v>
       </c>
+      <c r="I15" t="n">
+        <v>1055035.26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -889,6 +936,9 @@
       <c r="H16" t="n">
         <v>255925.43</v>
       </c>
+      <c r="I16" t="n">
+        <v>255761.45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -917,6 +967,9 @@
       <c r="H17" t="n">
         <v>2025526.24</v>
       </c>
+      <c r="I17" t="n">
+        <v>2017341.48</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -944,6 +997,9 @@
       </c>
       <c r="H18" t="n">
         <v>10751.18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10750.51</v>
       </c>
     </row>
     <row r="19">
@@ -971,6 +1027,9 @@
       <c r="H19" t="n">
         <v>1510125.75</v>
       </c>
+      <c r="I19" t="n">
+        <v>1616599.61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -997,6 +1056,9 @@
       <c r="H20" t="n">
         <v>692612.27</v>
       </c>
+      <c r="I20" t="n">
+        <v>692804.62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1023,6 +1085,9 @@
       <c r="H21" t="n">
         <v>155294.59</v>
       </c>
+      <c r="I21" t="n">
+        <v>155475.68</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1049,6 +1114,9 @@
       <c r="H22" t="n">
         <v>2998.51</v>
       </c>
+      <c r="I22" t="n">
+        <v>3005.01</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1075,6 +1143,9 @@
       <c r="H23" t="n">
         <v>5731.2</v>
       </c>
+      <c r="I23" t="n">
+        <v>5743.43</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1101,6 +1172,9 @@
       <c r="H24" t="n">
         <v>837716.9300000001</v>
       </c>
+      <c r="I24" t="n">
+        <v>837816.04</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1127,6 +1201,9 @@
       <c r="H25" t="n">
         <v>227006.48</v>
       </c>
+      <c r="I25" t="n">
+        <v>227050.48</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1153,6 +1230,9 @@
       <c r="H26" t="n">
         <v>1099957.94</v>
       </c>
+      <c r="I26" t="n">
+        <v>1058519.98</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1179,6 +1259,9 @@
       <c r="H27" t="n">
         <v>1001370.12</v>
       </c>
+      <c r="I27" t="n">
+        <v>989175.61</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1205,6 +1288,9 @@
       <c r="H28" t="n">
         <v>1270028.73</v>
       </c>
+      <c r="I28" t="n">
+        <v>1257984.57</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1233,6 +1319,9 @@
       <c r="H29" t="n">
         <v>882244</v>
       </c>
+      <c r="I29" t="n">
+        <v>882446.1899999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1261,6 +1350,9 @@
       <c r="H30" t="n">
         <v>163141.56</v>
       </c>
+      <c r="I30" t="n">
+        <v>163087.2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1289,6 +1381,9 @@
       <c r="H31" t="n">
         <v>23432.39</v>
       </c>
+      <c r="I31" t="n">
+        <v>23455.25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1317,6 +1412,9 @@
       <c r="H32" t="n">
         <v>522053.99</v>
       </c>
+      <c r="I32" t="n">
+        <v>457286.38</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1345,6 +1443,9 @@
       <c r="H33" t="n">
         <v>783769</v>
       </c>
+      <c r="I33" t="n">
+        <v>798514.79</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1373,6 +1474,9 @@
       <c r="H34" t="n">
         <v>295845.39</v>
       </c>
+      <c r="I34" t="n">
+        <v>295788.88</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1401,6 +1505,9 @@
       <c r="H35" t="n">
         <v>3660.52</v>
       </c>
+      <c r="I35" t="n">
+        <v>3659.47</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1429,6 +1536,9 @@
       <c r="H36" t="n">
         <v>220945.97</v>
       </c>
+      <c r="I36" t="n">
+        <v>225040.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1457,6 +1567,9 @@
       <c r="H37" t="n">
         <v>69039.96000000001</v>
       </c>
+      <c r="I37" t="n">
+        <v>69005.75</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1484,6 +1597,9 @@
       </c>
       <c r="H38" t="n">
         <v>134090.79</v>
+      </c>
+      <c r="I38" t="n">
+        <v>134023.6</v>
       </c>
     </row>
     <row r="39">
@@ -1511,6 +1627,9 @@
       <c r="H39" t="n">
         <v>446522.84</v>
       </c>
+      <c r="I39" t="n">
+        <v>446639.54</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1539,6 +1658,9 @@
       <c r="H40" t="n">
         <v>816740.9300000001</v>
       </c>
+      <c r="I40" t="n">
+        <v>816500.75</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1567,6 +1689,9 @@
       <c r="H41" t="n">
         <v>287088.44</v>
       </c>
+      <c r="I41" t="n">
+        <v>287224.93</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1595,6 +1720,9 @@
       <c r="H42" t="n">
         <v>525363.1</v>
       </c>
+      <c r="I42" t="n">
+        <v>525374.83</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1623,6 +1751,9 @@
       <c r="H43" t="n">
         <v>355565.18</v>
       </c>
+      <c r="I43" t="n">
+        <v>355539.26</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1651,6 +1782,9 @@
       <c r="H44" t="n">
         <v>683745.47</v>
       </c>
+      <c r="I44" t="n">
+        <v>684248.33</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1678,6 +1812,9 @@
       </c>
       <c r="H45" t="n">
         <v>969280.55</v>
+      </c>
+      <c r="I45" t="n">
+        <v>972270.09</v>
       </c>
     </row>
     <row r="46">
@@ -1699,6 +1836,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1727,6 +1865,9 @@
       <c r="H47" t="n">
         <v>2290561.01</v>
       </c>
+      <c r="I47" t="n">
+        <v>2085037.06</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1754,6 +1895,9 @@
       </c>
       <c r="H48" t="n">
         <v>175063.77</v>
+      </c>
+      <c r="I48" t="n">
+        <v>175113.35</v>
       </c>
     </row>
     <row r="49">
@@ -1775,6 +1919,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1803,6 +1948,9 @@
       <c r="H50" t="n">
         <v>549104.29</v>
       </c>
+      <c r="I50" t="n">
+        <v>542300.1800000001</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1830,6 +1978,9 @@
       </c>
       <c r="H51" t="n">
         <v>25258797.14</v>
+      </c>
+      <c r="I51" t="n">
+        <v>24945808.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>498785.52</v>
       </c>
+      <c r="J2" t="n">
+        <v>492823.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>1286174.38</v>
       </c>
+      <c r="J3" t="n">
+        <v>1315635.81</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>209719.13</v>
       </c>
+      <c r="J4" t="n">
+        <v>210487.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>280875.16</v>
       </c>
+      <c r="J5" t="n">
+        <v>280999.49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>684054.29</v>
       </c>
+      <c r="J6" t="n">
+        <v>768885.1899999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>138.39</v>
       </c>
+      <c r="J7" t="n">
+        <v>137.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>1154365.53</v>
       </c>
+      <c r="J8" t="n">
+        <v>1154570.53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>512540.66</v>
       </c>
+      <c r="J9" t="n">
+        <v>512652.89</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>30024.31</v>
       </c>
+      <c r="J10" t="n">
+        <v>30004.86</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>646008.86</v>
       </c>
+      <c r="J11" t="n">
+        <v>644278.58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>55134.44</v>
       </c>
+      <c r="J12" t="n">
+        <v>55082.43</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -846,6 +884,9 @@
       <c r="I13" t="n">
         <v>2799.52</v>
       </c>
+      <c r="J13" t="n">
+        <v>2799.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -877,6 +918,9 @@
       <c r="I14" t="n">
         <v>1868.01</v>
       </c>
+      <c r="J14" t="n">
+        <v>1852.22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -908,6 +952,9 @@
       <c r="I15" t="n">
         <v>1055035.26</v>
       </c>
+      <c r="J15" t="n">
+        <v>1035322.64</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -939,6 +986,9 @@
       <c r="I16" t="n">
         <v>255761.45</v>
       </c>
+      <c r="J16" t="n">
+        <v>325702.44</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -970,6 +1020,9 @@
       <c r="I17" t="n">
         <v>2017341.48</v>
       </c>
+      <c r="J17" t="n">
+        <v>1995890.85</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1000,6 +1053,9 @@
       </c>
       <c r="I18" t="n">
         <v>10750.51</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10749.73</v>
       </c>
     </row>
     <row r="19">
@@ -1030,6 +1086,9 @@
       <c r="I19" t="n">
         <v>1616599.61</v>
       </c>
+      <c r="J19" t="n">
+        <v>1779330.84</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1059,6 +1118,9 @@
       <c r="I20" t="n">
         <v>692804.62</v>
       </c>
+      <c r="J20" t="n">
+        <v>778028.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1088,6 +1150,9 @@
       <c r="I21" t="n">
         <v>155475.68</v>
       </c>
+      <c r="J21" t="n">
+        <v>155420.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1117,6 +1182,9 @@
       <c r="I22" t="n">
         <v>3005.01</v>
       </c>
+      <c r="J22" t="n">
+        <v>2995.72</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1146,6 +1214,9 @@
       <c r="I23" t="n">
         <v>5743.43</v>
       </c>
+      <c r="J23" t="n">
+        <v>5737.92</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1175,6 +1246,9 @@
       <c r="I24" t="n">
         <v>837816.04</v>
       </c>
+      <c r="J24" t="n">
+        <v>837537.74</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1204,6 +1278,9 @@
       <c r="I25" t="n">
         <v>227050.48</v>
       </c>
+      <c r="J25" t="n">
+        <v>227421.55</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1233,6 +1310,9 @@
       <c r="I26" t="n">
         <v>1058519.98</v>
       </c>
+      <c r="J26" t="n">
+        <v>1065582.86</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1262,6 +1342,9 @@
       <c r="I27" t="n">
         <v>989175.61</v>
       </c>
+      <c r="J27" t="n">
+        <v>982393.74</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1291,6 +1374,9 @@
       <c r="I28" t="n">
         <v>1257984.57</v>
       </c>
+      <c r="J28" t="n">
+        <v>1219792.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1322,6 +1408,9 @@
       <c r="I29" t="n">
         <v>882446.1899999999</v>
       </c>
+      <c r="J29" t="n">
+        <v>857422.48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1353,6 +1442,9 @@
       <c r="I30" t="n">
         <v>163087.2</v>
       </c>
+      <c r="J30" t="n">
+        <v>163103.05</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1384,6 +1476,9 @@
       <c r="I31" t="n">
         <v>23455.25</v>
       </c>
+      <c r="J31" t="n">
+        <v>23441.1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1415,6 +1510,9 @@
       <c r="I32" t="n">
         <v>457286.38</v>
       </c>
+      <c r="J32" t="n">
+        <v>437078.97</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1446,6 +1544,9 @@
       <c r="I33" t="n">
         <v>798514.79</v>
       </c>
+      <c r="J33" t="n">
+        <v>798871.51</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1477,6 +1578,9 @@
       <c r="I34" t="n">
         <v>295788.88</v>
       </c>
+      <c r="J34" t="n">
+        <v>295716.14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1508,6 +1612,9 @@
       <c r="I35" t="n">
         <v>3659.47</v>
       </c>
+      <c r="J35" t="n">
+        <v>3666.96</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1539,6 +1646,9 @@
       <c r="I36" t="n">
         <v>225040.8</v>
       </c>
+      <c r="J36" t="n">
+        <v>222067.53</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1570,6 +1680,9 @@
       <c r="I37" t="n">
         <v>69005.75</v>
       </c>
+      <c r="J37" t="n">
+        <v>69076.58</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1600,6 +1713,9 @@
       </c>
       <c r="I38" t="n">
         <v>134023.6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>134093.88</v>
       </c>
     </row>
     <row r="39">
@@ -1630,6 +1746,9 @@
       <c r="I39" t="n">
         <v>446639.54</v>
       </c>
+      <c r="J39" t="n">
+        <v>446431.73</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1661,6 +1780,9 @@
       <c r="I40" t="n">
         <v>816500.75</v>
       </c>
+      <c r="J40" t="n">
+        <v>816807.38</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1692,6 +1814,9 @@
       <c r="I41" t="n">
         <v>287224.93</v>
       </c>
+      <c r="J41" t="n">
+        <v>302102.37</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1723,6 +1848,9 @@
       <c r="I42" t="n">
         <v>525374.83</v>
       </c>
+      <c r="J42" t="n">
+        <v>525375.75</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1754,6 +1882,9 @@
       <c r="I43" t="n">
         <v>355539.26</v>
       </c>
+      <c r="J43" t="n">
+        <v>355559.99</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1785,6 +1916,9 @@
       <c r="I44" t="n">
         <v>684248.33</v>
       </c>
+      <c r="J44" t="n">
+        <v>683645.74</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1815,6 +1949,9 @@
       </c>
       <c r="I45" t="n">
         <v>972270.09</v>
+      </c>
+      <c r="J45" t="n">
+        <v>969270.48</v>
       </c>
     </row>
     <row r="46">
@@ -1837,6 +1974,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1868,6 +2006,9 @@
       <c r="I47" t="n">
         <v>2085037.06</v>
       </c>
+      <c r="J47" t="n">
+        <v>2084835.58</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1898,6 +2039,9 @@
       </c>
       <c r="I48" t="n">
         <v>175113.35</v>
+      </c>
+      <c r="J48" t="n">
+        <v>175058.82</v>
       </c>
     </row>
     <row r="49">
@@ -1920,6 +2064,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1951,6 +2096,9 @@
       <c r="I50" t="n">
         <v>542300.1800000001</v>
       </c>
+      <c r="J50" t="n">
+        <v>549037.89</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1981,6 +2129,9 @@
       </c>
       <c r="I51" t="n">
         <v>24945808.38</v>
+      </c>
+      <c r="J51" t="n">
+        <v>25255743.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>492823.95</v>
       </c>
+      <c r="K2" t="n">
+        <v>493073.47</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>1315635.81</v>
       </c>
+      <c r="K3" t="n">
+        <v>1315338.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>210487.41</v>
       </c>
+      <c r="K4" t="n">
+        <v>209661.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>280999.49</v>
       </c>
+      <c r="K5" t="n">
+        <v>284573.27</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>768885.1899999999</v>
       </c>
+      <c r="K6" t="n">
+        <v>809502.79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>137.09</v>
       </c>
+      <c r="K7" t="n">
+        <v>129.83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>1154570.53</v>
       </c>
+      <c r="K8" t="n">
+        <v>1153816.88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>512652.89</v>
       </c>
+      <c r="K9" t="n">
+        <v>512746.36</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>30004.86</v>
       </c>
+      <c r="K10" t="n">
+        <v>19067.43</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>644278.58</v>
       </c>
+      <c r="K11" t="n">
+        <v>646467.65</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>55082.43</v>
       </c>
+      <c r="K12" t="n">
+        <v>6520.32</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>2799.12</v>
       </c>
+      <c r="K13" t="n">
+        <v>2797.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>1852.22</v>
       </c>
+      <c r="K14" t="n">
+        <v>1851.88</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -955,6 +999,9 @@
       <c r="J15" t="n">
         <v>1035322.64</v>
       </c>
+      <c r="K15" t="n">
+        <v>1049061.32</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -989,6 +1036,9 @@
       <c r="J16" t="n">
         <v>325702.44</v>
       </c>
+      <c r="K16" t="n">
+        <v>325801.88</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1023,6 +1073,9 @@
       <c r="J17" t="n">
         <v>1995890.85</v>
       </c>
+      <c r="K17" t="n">
+        <v>1981146.37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1056,6 +1109,9 @@
       </c>
       <c r="J18" t="n">
         <v>10749.73</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10125.26</v>
       </c>
     </row>
     <row r="19">
@@ -1089,6 +1145,9 @@
       <c r="J19" t="n">
         <v>1779330.84</v>
       </c>
+      <c r="K19" t="n">
+        <v>1779507.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1121,6 +1180,9 @@
       <c r="J20" t="n">
         <v>778028.6</v>
       </c>
+      <c r="K20" t="n">
+        <v>778204.52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1153,6 +1215,9 @@
       <c r="J21" t="n">
         <v>155420.62</v>
       </c>
+      <c r="K21" t="n">
+        <v>155356.09</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1185,6 +1250,9 @@
       <c r="J22" t="n">
         <v>2995.72</v>
       </c>
+      <c r="K22" t="n">
+        <v>2995.73</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1217,6 +1285,9 @@
       <c r="J23" t="n">
         <v>5737.92</v>
       </c>
+      <c r="K23" t="n">
+        <v>5742.88</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1249,6 +1320,9 @@
       <c r="J24" t="n">
         <v>837537.74</v>
       </c>
+      <c r="K24" t="n">
+        <v>837954.15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1281,6 +1355,9 @@
       <c r="J25" t="n">
         <v>227421.55</v>
       </c>
+      <c r="K25" t="n">
+        <v>226963.87</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1313,6 +1390,9 @@
       <c r="J26" t="n">
         <v>1065582.86</v>
       </c>
+      <c r="K26" t="n">
+        <v>978408.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1345,6 +1425,9 @@
       <c r="J27" t="n">
         <v>982393.74</v>
       </c>
+      <c r="K27" t="n">
+        <v>946198.13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1377,6 +1460,9 @@
       <c r="J28" t="n">
         <v>1219792.25</v>
       </c>
+      <c r="K28" t="n">
+        <v>1272256.67</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1411,6 +1497,9 @@
       <c r="J29" t="n">
         <v>857422.48</v>
       </c>
+      <c r="K29" t="n">
+        <v>957599.23</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1445,6 +1534,9 @@
       <c r="J30" t="n">
         <v>163103.05</v>
       </c>
+      <c r="K30" t="n">
+        <v>163084.4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1479,6 +1571,9 @@
       <c r="J31" t="n">
         <v>23441.1</v>
       </c>
+      <c r="K31" t="n">
+        <v>23434.04</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1513,6 +1608,9 @@
       <c r="J32" t="n">
         <v>437078.97</v>
       </c>
+      <c r="K32" t="n">
+        <v>422228.01</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1547,6 +1645,9 @@
       <c r="J33" t="n">
         <v>798871.51</v>
       </c>
+      <c r="K33" t="n">
+        <v>798918.5699999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1581,6 +1682,9 @@
       <c r="J34" t="n">
         <v>295716.14</v>
       </c>
+      <c r="K34" t="n">
+        <v>295671.94</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1615,6 +1719,9 @@
       <c r="J35" t="n">
         <v>3666.96</v>
       </c>
+      <c r="K35" t="n">
+        <v>3663.45</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1649,6 +1756,9 @@
       <c r="J36" t="n">
         <v>222067.53</v>
       </c>
+      <c r="K36" t="n">
+        <v>212000.04</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1683,6 +1793,9 @@
       <c r="J37" t="n">
         <v>69076.58</v>
       </c>
+      <c r="K37" t="n">
+        <v>69042.89</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1716,6 +1829,9 @@
       </c>
       <c r="J38" t="n">
         <v>134093.88</v>
+      </c>
+      <c r="K38" t="n">
+        <v>134000.31</v>
       </c>
     </row>
     <row r="39">
@@ -1749,6 +1865,9 @@
       <c r="J39" t="n">
         <v>446431.73</v>
       </c>
+      <c r="K39" t="n">
+        <v>446593.69</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1783,6 +1902,9 @@
       <c r="J40" t="n">
         <v>816807.38</v>
       </c>
+      <c r="K40" t="n">
+        <v>816515.47</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1817,6 +1939,9 @@
       <c r="J41" t="n">
         <v>302102.37</v>
       </c>
+      <c r="K41" t="n">
+        <v>282211.52</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1851,6 +1976,9 @@
       <c r="J42" t="n">
         <v>525375.75</v>
       </c>
+      <c r="K42" t="n">
+        <v>525317.65</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1885,6 +2013,9 @@
       <c r="J43" t="n">
         <v>355559.99</v>
       </c>
+      <c r="K43" t="n">
+        <v>355528.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1919,6 +2050,9 @@
       <c r="J44" t="n">
         <v>683645.74</v>
       </c>
+      <c r="K44" t="n">
+        <v>683468.89</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1952,6 +2086,9 @@
       </c>
       <c r="J45" t="n">
         <v>969270.48</v>
+      </c>
+      <c r="K45" t="n">
+        <v>969781.17</v>
       </c>
     </row>
     <row r="46">
@@ -1975,6 +2112,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2009,6 +2147,9 @@
       <c r="J47" t="n">
         <v>2084835.58</v>
       </c>
+      <c r="K47" t="n">
+        <v>2083607.58</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2042,6 +2183,9 @@
       </c>
       <c r="J48" t="n">
         <v>175058.82</v>
+      </c>
+      <c r="K48" t="n">
+        <v>175153.57</v>
       </c>
     </row>
     <row r="49">
@@ -2065,6 +2209,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2099,6 +2244,9 @@
       <c r="J50" t="n">
         <v>549037.89</v>
       </c>
+      <c r="K50" t="n">
+        <v>548328.05</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2132,6 +2280,9 @@
       </c>
       <c r="J51" t="n">
         <v>25255743.11</v>
+      </c>
+      <c r="K51" t="n">
+        <v>25223090.45</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>493073.47</v>
       </c>
+      <c r="L2" t="n">
+        <v>492751.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>1315338.7</v>
       </c>
+      <c r="L3" t="n">
+        <v>1315907.76</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>209661.25</v>
       </c>
+      <c r="L4" t="n">
+        <v>197183.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>284573.27</v>
       </c>
+      <c r="L5" t="n">
+        <v>284516.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>809502.79</v>
       </c>
+      <c r="L6" t="n">
+        <v>809560.48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>129.83</v>
       </c>
+      <c r="L7" t="n">
+        <v>130.35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>1153816.88</v>
       </c>
+      <c r="L8" t="n">
+        <v>1154391.21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>512746.36</v>
       </c>
+      <c r="L9" t="n">
+        <v>512361.77</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>19067.43</v>
       </c>
+      <c r="L10" t="n">
+        <v>19046.71</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>646467.65</v>
       </c>
+      <c r="L11" t="n">
+        <v>644763.96</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>6520.32</v>
       </c>
+      <c r="L12" t="n">
+        <v>6519.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -928,6 +966,9 @@
       <c r="K13" t="n">
         <v>2797.83</v>
       </c>
+      <c r="L13" t="n">
+        <v>2801.98</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -965,6 +1006,9 @@
       <c r="K14" t="n">
         <v>1851.88</v>
       </c>
+      <c r="L14" t="n">
+        <v>1850.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1002,6 +1046,9 @@
       <c r="K15" t="n">
         <v>1049061.32</v>
       </c>
+      <c r="L15" t="n">
+        <v>993229.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1039,6 +1086,9 @@
       <c r="K16" t="n">
         <v>325801.88</v>
       </c>
+      <c r="L16" t="n">
+        <v>325824.66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1076,6 +1126,9 @@
       <c r="K17" t="n">
         <v>1981146.37</v>
       </c>
+      <c r="L17" t="n">
+        <v>1975827.67</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1112,6 +1165,9 @@
       </c>
       <c r="K18" t="n">
         <v>10125.26</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10126.61</v>
       </c>
     </row>
     <row r="19">
@@ -1148,6 +1204,9 @@
       <c r="K19" t="n">
         <v>1779507.15</v>
       </c>
+      <c r="L19" t="n">
+        <v>1780281.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1183,6 +1242,9 @@
       <c r="K20" t="n">
         <v>778204.52</v>
       </c>
+      <c r="L20" t="n">
+        <v>778296.04</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1218,6 +1280,9 @@
       <c r="K21" t="n">
         <v>155356.09</v>
       </c>
+      <c r="L21" t="n">
+        <v>155306.6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1253,6 +1318,9 @@
       <c r="K22" t="n">
         <v>2995.73</v>
       </c>
+      <c r="L22" t="n">
+        <v>2998.97</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1288,6 +1356,9 @@
       <c r="K23" t="n">
         <v>5742.88</v>
       </c>
+      <c r="L23" t="n">
+        <v>5743.23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1323,6 +1394,9 @@
       <c r="K24" t="n">
         <v>837954.15</v>
       </c>
+      <c r="L24" t="n">
+        <v>837923.12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1358,6 +1432,9 @@
       <c r="K25" t="n">
         <v>226963.87</v>
       </c>
+      <c r="L25" t="n">
+        <v>227677.43</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1393,6 +1470,9 @@
       <c r="K26" t="n">
         <v>978408.25</v>
       </c>
+      <c r="L26" t="n">
+        <v>969527.35</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1428,6 +1508,9 @@
       <c r="K27" t="n">
         <v>946198.13</v>
       </c>
+      <c r="L27" t="n">
+        <v>918657.84</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1463,6 +1546,9 @@
       <c r="K28" t="n">
         <v>1272256.67</v>
       </c>
+      <c r="L28" t="n">
+        <v>1159004.88</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1500,6 +1586,9 @@
       <c r="K29" t="n">
         <v>957599.23</v>
       </c>
+      <c r="L29" t="n">
+        <v>917420.34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1537,6 +1626,9 @@
       <c r="K30" t="n">
         <v>163084.4</v>
       </c>
+      <c r="L30" t="n">
+        <v>158897.83</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1574,6 +1666,9 @@
       <c r="K31" t="n">
         <v>23434.04</v>
       </c>
+      <c r="L31" t="n">
+        <v>23452.13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1611,6 +1706,9 @@
       <c r="K32" t="n">
         <v>422228.01</v>
       </c>
+      <c r="L32" t="n">
+        <v>402183.91</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1648,6 +1746,9 @@
       <c r="K33" t="n">
         <v>798918.5699999999</v>
       </c>
+      <c r="L33" t="n">
+        <v>788577.6800000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1685,6 +1786,9 @@
       <c r="K34" t="n">
         <v>295671.94</v>
       </c>
+      <c r="L34" t="n">
+        <v>293830.08</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1722,6 +1826,9 @@
       <c r="K35" t="n">
         <v>3663.45</v>
       </c>
+      <c r="L35" t="n">
+        <v>3658.11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1759,6 +1866,9 @@
       <c r="K36" t="n">
         <v>212000.04</v>
       </c>
+      <c r="L36" t="n">
+        <v>207494</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1796,6 +1906,9 @@
       <c r="K37" t="n">
         <v>69042.89</v>
       </c>
+      <c r="L37" t="n">
+        <v>68994.25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1832,6 +1945,9 @@
       </c>
       <c r="K38" t="n">
         <v>134000.31</v>
+      </c>
+      <c r="L38" t="n">
+        <v>134002.58</v>
       </c>
     </row>
     <row r="39">
@@ -1868,6 +1984,9 @@
       <c r="K39" t="n">
         <v>446593.69</v>
       </c>
+      <c r="L39" t="n">
+        <v>446638.73</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1905,6 +2024,9 @@
       <c r="K40" t="n">
         <v>816515.47</v>
       </c>
+      <c r="L40" t="n">
+        <v>603773.78</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1942,6 +2064,9 @@
       <c r="K41" t="n">
         <v>282211.52</v>
       </c>
+      <c r="L41" t="n">
+        <v>297062.77</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1979,6 +2104,9 @@
       <c r="K42" t="n">
         <v>525317.65</v>
       </c>
+      <c r="L42" t="n">
+        <v>525154.14</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2016,6 +2144,9 @@
       <c r="K43" t="n">
         <v>355528.1</v>
       </c>
+      <c r="L43" t="n">
+        <v>355488.61</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2053,6 +2184,9 @@
       <c r="K44" t="n">
         <v>683468.89</v>
       </c>
+      <c r="L44" t="n">
+        <v>617297.29</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2089,6 +2223,9 @@
       </c>
       <c r="K45" t="n">
         <v>969781.17</v>
+      </c>
+      <c r="L45" t="n">
+        <v>970484.38</v>
       </c>
     </row>
     <row r="46">
@@ -2113,6 +2250,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2150,6 +2288,9 @@
       <c r="K47" t="n">
         <v>2083607.58</v>
       </c>
+      <c r="L47" t="n">
+        <v>2084163.36</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2186,6 +2327,9 @@
       </c>
       <c r="K48" t="n">
         <v>175153.57</v>
+      </c>
+      <c r="L48" t="n">
+        <v>175043.09</v>
       </c>
     </row>
     <row r="49">
@@ -2210,6 +2354,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2247,6 +2392,9 @@
       <c r="K50" t="n">
         <v>548328.05</v>
       </c>
+      <c r="L50" t="n">
+        <v>535996.22</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2283,6 +2431,9 @@
       </c>
       <c r="K51" t="n">
         <v>25223090.45</v>
+      </c>
+      <c r="L51" t="n">
+        <v>24655826.18</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>492751.08</v>
       </c>
+      <c r="M2" t="n">
+        <v>493054.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>1315907.76</v>
       </c>
+      <c r="M3" t="n">
+        <v>1364663.64</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>197183.25</v>
       </c>
+      <c r="M4" t="n">
+        <v>197162.54</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>284516.09</v>
       </c>
+      <c r="M5" t="n">
+        <v>284535.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>809560.48</v>
       </c>
+      <c r="M6" t="n">
+        <v>809425.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>130.35</v>
       </c>
+      <c r="M7" t="n">
+        <v>129.43</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>1154391.21</v>
       </c>
+      <c r="M8" t="n">
+        <v>1154125.93</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>512361.77</v>
       </c>
+      <c r="M9" t="n">
+        <v>512469.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>19046.71</v>
       </c>
+      <c r="M10" t="n">
+        <v>19086.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>644763.96</v>
       </c>
+      <c r="M11" t="n">
+        <v>646291.71</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -929,6 +964,9 @@
       <c r="L12" t="n">
         <v>6519.47</v>
       </c>
+      <c r="M12" t="n">
+        <v>6520.16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -969,6 +1007,9 @@
       <c r="L13" t="n">
         <v>2801.98</v>
       </c>
+      <c r="M13" t="n">
+        <v>2797.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1009,6 +1050,9 @@
       <c r="L14" t="n">
         <v>1850.06</v>
       </c>
+      <c r="M14" t="n">
+        <v>1840.43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1049,6 +1093,9 @@
       <c r="L15" t="n">
         <v>993229.25</v>
       </c>
+      <c r="M15" t="n">
+        <v>969700.65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1089,6 +1136,9 @@
       <c r="L16" t="n">
         <v>325824.66</v>
       </c>
+      <c r="M16" t="n">
+        <v>325675.87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1129,6 +1179,9 @@
       <c r="L17" t="n">
         <v>1975827.67</v>
       </c>
+      <c r="M17" t="n">
+        <v>1960776.46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1168,6 +1221,9 @@
       </c>
       <c r="L18" t="n">
         <v>10126.61</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10133.48</v>
       </c>
     </row>
     <row r="19">
@@ -1207,6 +1263,9 @@
       <c r="L19" t="n">
         <v>1780281.3</v>
       </c>
+      <c r="M19" t="n">
+        <v>1754612.74</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1245,6 +1304,9 @@
       <c r="L20" t="n">
         <v>778296.04</v>
       </c>
+      <c r="M20" t="n">
+        <v>778123.65</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1283,6 +1345,9 @@
       <c r="L21" t="n">
         <v>155306.6</v>
       </c>
+      <c r="M21" t="n">
+        <v>155385.45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1321,6 +1386,9 @@
       <c r="L22" t="n">
         <v>2998.97</v>
       </c>
+      <c r="M22" t="n">
+        <v>3001.98</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1359,6 +1427,9 @@
       <c r="L23" t="n">
         <v>5743.23</v>
       </c>
+      <c r="M23" t="n">
+        <v>4581.56</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1397,6 +1468,9 @@
       <c r="L24" t="n">
         <v>837923.12</v>
       </c>
+      <c r="M24" t="n">
+        <v>837965.6899999999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1435,6 +1509,9 @@
       <c r="L25" t="n">
         <v>227677.43</v>
       </c>
+      <c r="M25" t="n">
+        <v>226963.55</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1473,6 +1550,9 @@
       <c r="L26" t="n">
         <v>969527.35</v>
       </c>
+      <c r="M26" t="n">
+        <v>969787.13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1511,6 +1591,9 @@
       <c r="L27" t="n">
         <v>918657.84</v>
       </c>
+      <c r="M27" t="n">
+        <v>918818.8100000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1549,6 +1632,9 @@
       <c r="L28" t="n">
         <v>1159004.88</v>
       </c>
+      <c r="M28" t="n">
+        <v>1123856.16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1589,6 +1675,9 @@
       <c r="L29" t="n">
         <v>917420.34</v>
       </c>
+      <c r="M29" t="n">
+        <v>900738.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1629,6 +1718,9 @@
       <c r="L30" t="n">
         <v>158897.83</v>
       </c>
+      <c r="M30" t="n">
+        <v>158958.38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1669,6 +1761,9 @@
       <c r="L31" t="n">
         <v>23452.13</v>
       </c>
+      <c r="M31" t="n">
+        <v>23454.24</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1709,6 +1804,9 @@
       <c r="L32" t="n">
         <v>402183.91</v>
       </c>
+      <c r="M32" t="n">
+        <v>402240.42</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1749,6 +1847,9 @@
       <c r="L33" t="n">
         <v>788577.6800000001</v>
       </c>
+      <c r="M33" t="n">
+        <v>783730.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1789,6 +1890,9 @@
       <c r="L34" t="n">
         <v>293830.08</v>
       </c>
+      <c r="M34" t="n">
+        <v>258774.53</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1829,6 +1933,9 @@
       <c r="L35" t="n">
         <v>3658.11</v>
       </c>
+      <c r="M35" t="n">
+        <v>3652.44</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1869,6 +1976,9 @@
       <c r="L36" t="n">
         <v>207494</v>
       </c>
+      <c r="M36" t="n">
+        <v>208485.73</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1909,6 +2019,9 @@
       <c r="L37" t="n">
         <v>68994.25</v>
       </c>
+      <c r="M37" t="n">
+        <v>68991.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1948,6 +2061,9 @@
       </c>
       <c r="L38" t="n">
         <v>134002.58</v>
+      </c>
+      <c r="M38" t="n">
+        <v>134041.17</v>
       </c>
     </row>
     <row r="39">
@@ -1987,6 +2103,9 @@
       <c r="L39" t="n">
         <v>446638.73</v>
       </c>
+      <c r="M39" t="n">
+        <v>446578.71</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2027,6 +2146,9 @@
       <c r="L40" t="n">
         <v>603773.78</v>
       </c>
+      <c r="M40" t="n">
+        <v>604056.54</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2067,6 +2189,9 @@
       <c r="L41" t="n">
         <v>297062.77</v>
       </c>
+      <c r="M41" t="n">
+        <v>297167.08</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2107,6 +2232,9 @@
       <c r="L42" t="n">
         <v>525154.14</v>
       </c>
+      <c r="M42" t="n">
+        <v>525449.0699999999</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2147,6 +2275,9 @@
       <c r="L43" t="n">
         <v>355488.61</v>
       </c>
+      <c r="M43" t="n">
+        <v>345258.77</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2187,6 +2318,9 @@
       <c r="L44" t="n">
         <v>617297.29</v>
       </c>
+      <c r="M44" t="n">
+        <v>617474.86</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2226,6 +2360,9 @@
       </c>
       <c r="L45" t="n">
         <v>970484.38</v>
+      </c>
+      <c r="M45" t="n">
+        <v>964084.92</v>
       </c>
     </row>
     <row r="46">
@@ -2251,6 +2388,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2291,6 +2429,9 @@
       <c r="L47" t="n">
         <v>2084163.36</v>
       </c>
+      <c r="M47" t="n">
+        <v>2084354.19</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2330,6 +2471,9 @@
       </c>
       <c r="L48" t="n">
         <v>175043.09</v>
+      </c>
+      <c r="M48" t="n">
+        <v>175119.68</v>
       </c>
     </row>
     <row r="49">
@@ -2355,6 +2499,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2395,6 +2540,9 @@
       <c r="L50" t="n">
         <v>535996.22</v>
       </c>
+      <c r="M50" t="n">
+        <v>533349.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2434,6 +2582,9 @@
       </c>
       <c r="L51" t="n">
         <v>24655826.18</v>
+      </c>
+      <c r="M51" t="n">
+        <v>24534097.73</v>
       </c>
     </row>
   </sheetData>
